--- a/database/Book2.xlsx
+++ b/database/Book2.xlsx
@@ -19,7 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Application_No_FDA</t>
+  </si>
+  <si>
+    <t>"089100"</t>
+  </si>
+  <si>
+    <t>"211188"</t>
+  </si>
+  <si>
+    <t>"211222"</t>
+  </si>
+  <si>
+    <t>"085517"</t>
+  </si>
+  <si>
+    <t>"084411"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -335,110 +354,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>211188</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>211188</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>211188</v>
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>211188</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>211188</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>211188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>211188</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
